--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF854F89-64F7-4315-B44F-3D512D11CC7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C3817-CECE-4848-95C1-004A810A0EF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>http://buhev-jira.conti.de:7090/browse/HD</t>
   </si>
   <si>
-    <t>18 / 03 / 2019</t>
-  </si>
-  <si>
     <t>IntLogoffTime</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>IntStoryPointsLeft</t>
+  </si>
+  <si>
+    <t>20 / 03 / 2019</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>4</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="2">
         <v>12</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2">
         <v>480</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2">
         <v>45</v>
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>0.72291666666666676</v>
+        <v>0.9194444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -816,12 +816,12 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <v>448</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <v>4</v>

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C3817-CECE-4848-95C1-004A810A0EF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462528BC-0539-4036-B958-01D0396E84CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>IntStoryPointsLeft</t>
   </si>
   <si>
-    <t>20 / 03 / 2019</t>
+    <t>21 / 03 / 2019</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="2">
-        <v>480</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>0.9194444444444444</v>
+        <v>0.3979166666666667</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462528BC-0539-4036-B958-01D0396E84CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE61FCF-9AB7-4930-9476-F72E475F3C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Hellox</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>test</t>
   </si>
@@ -61,9 +58,6 @@
     <t>IntOnlineTime</t>
   </si>
   <si>
-    <t>14 / 03 / 2019</t>
-  </si>
-  <si>
     <t>SCurrentTask</t>
   </si>
   <si>
@@ -91,7 +85,7 @@
     <t>IntStoryPointsLeft</t>
   </si>
   <si>
-    <t>21 / 03 / 2019</t>
+    <t>22 / 03 / 2019</t>
   </si>
 </sst>
 </file>
@@ -493,204 +487,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="C4:J23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="C13:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7" s="1">
-        <v>0.91180555555555554</v>
-      </c>
-      <c r="E7" s="5">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E9" s="5">
-        <v>43772</v>
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E10" s="5">
-        <v>43772</v>
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43772</v>
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E12" s="5">
-        <v>43772</v>
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="6">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43772</v>
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E14" s="5">
-        <v>43772</v>
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="E15" s="5">
-        <v>43772</v>
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="E17" s="5">
-        <v>43802</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>0.71944444444444444</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="6">
-        <v>3</v>
-      </c>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.40972222222222227</v>
+      </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.40972222222222227</v>
+      </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.40972222222222227</v>
+      </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.40972222222222227</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -702,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,12 +750,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -770,31 +797,31 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2">
-        <v>180</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="2">
         <v>45</v>
@@ -805,23 +832,23 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.3979166666666667</v>
+        <v>0.41111111111111115</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -829,23 +856,23 @@
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -853,7 +880,7 @@
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23">
         <v>4</v>

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE61FCF-9AB7-4930-9476-F72E475F3C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994DF0A7-9D22-4926-8AF2-AAF334EA7CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>test</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>22 / 03 / 2019</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -489,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
   <dimension ref="C4:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="C13:E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,16 +516,16 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>0.43402777777777773</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -530,10 +533,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>0.43402777777777773</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
@@ -541,10 +541,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>0.43402777777777773</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
@@ -552,10 +549,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>0.43402777777777773</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
@@ -563,161 +557,73 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.40972222222222227</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.40972222222222227</v>
-      </c>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.40972222222222227</v>
-      </c>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.40972222222222227</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.40972222222222227</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.40972222222222227</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.40972222222222227</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.40972222222222227</v>
-      </c>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -808,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -835,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.41111111111111115</v>
+        <v>0.45694444444444443</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994DF0A7-9D22-4926-8AF2-AAF334EA7CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A171B-DC04-47E0-9670-AB38413A4C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>test</t>
   </si>
@@ -85,10 +85,16 @@
     <t>IntStoryPointsLeft</t>
   </si>
   <si>
-    <t>22 / 03 / 2019</t>
-  </si>
-  <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>26 / 03 / 2019</t>
+  </si>
+  <si>
+    <t>cxzcxz</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -566,32 +572,86 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.67499999999999993</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="6"/>
     </row>
@@ -714,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -741,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.45694444444444443</v>
+        <v>0.76874999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -749,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
@@ -765,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A171B-DC04-47E0-9670-AB38413A4C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABDF064-1384-4F6C-8E3E-7AC7A09A09CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -801,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.76874999999999993</v>
+        <v>0.88611111111111107</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABDF064-1384-4F6C-8E3E-7AC7A09A09CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E38D3-E089-4FA2-93A8-8CFEC89D23B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>test</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>27 / 03 / 2019</t>
+  </si>
+  <si>
+    <t>LOCK</t>
+  </si>
+  <si>
+    <t>UNLOCK</t>
   </si>
 </sst>
 </file>
@@ -656,33 +665,55 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
   </sheetData>
@@ -774,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -801,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.88611111111111107</v>
+        <v>0.40902777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -809,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
@@ -825,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E38D3-E089-4FA2-93A8-8CFEC89D23B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F7D9E6-153A-4765-8561-EA0D0836AD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>test</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>UNLOCK</t>
+  </si>
+  <si>
+    <t>02 min break</t>
   </si>
 </sst>
 </file>
@@ -697,24 +700,93 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -832,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.40902777777777777</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -856,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F7D9E6-153A-4765-8561-EA0D0836AD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F12AE-5238-453B-90D1-ED6A0CD08C4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.71666666666666667</v>
+        <v>0.9159722222222223</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F12AE-5238-453B-90D1-ED6A0CD08C4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567E1FA-8944-48EE-88B7-AEA369E69A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>test</t>
   </si>
@@ -107,6 +107,39 @@
   </si>
   <si>
     <t>02 min break</t>
+  </si>
+  <si>
+    <t>29 / 03 / 2019</t>
+  </si>
+  <si>
+    <t>15 min break</t>
+  </si>
+  <si>
+    <t>Total BrakeTime</t>
+  </si>
+  <si>
+    <t>TotalDayBreakTime</t>
+  </si>
+  <si>
+    <t>000min break</t>
+  </si>
+  <si>
+    <t>00 min break</t>
+  </si>
+  <si>
+    <t>101 min Offline</t>
+  </si>
+  <si>
+    <t>01 min break</t>
+  </si>
+  <si>
+    <t>100 min Offline</t>
+  </si>
+  <si>
+    <t>10000 min Offline</t>
+  </si>
+  <si>
+    <t>10015 min Offline</t>
   </si>
 </sst>
 </file>
@@ -508,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="C4:J23"/>
+  <dimension ref="C4:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G24"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +552,8 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
@@ -537,6 +572,9 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
@@ -786,6 +824,275 @@
       </c>
       <c r="G23" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -796,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -904,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.9159722222222223</v>
+        <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -912,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
@@ -928,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">
@@ -953,6 +1260,14 @@
       </c>
       <c r="J23">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567E1FA-8944-48EE-88B7-AEA369E69A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD81AFC-F47F-4F32-B6A4-6F603144961D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>test</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>10015 min Offline</t>
+  </si>
+  <si>
+    <t>00 min Offline</t>
+  </si>
+  <si>
+    <t>17 min Offline</t>
+  </si>
+  <si>
+    <t>39 min Offline</t>
+  </si>
+  <si>
+    <t>22 min break</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="C4:J39"/>
+  <dimension ref="C4:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -1093,6 +1105,167 @@
       </c>
       <c r="H39" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1211,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0.54791666666666672</v>
+        <v>0.74444444444444446</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1235,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>150</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">
@@ -1267,7 +1440,7 @@
         <v>30</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD81AFC-F47F-4F32-B6A4-6F603144961D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09C6808-AA9D-44ED-88A8-6C5CB2196F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
   <si>
     <t>test</t>
   </si>
@@ -152,6 +152,30 @@
   </si>
   <si>
     <t>22 min break</t>
+  </si>
+  <si>
+    <t>16 min Offline</t>
+  </si>
+  <si>
+    <t>06 min break</t>
+  </si>
+  <si>
+    <t>0 min Offline</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>New Day</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -159,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -215,22 +239,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,647 +580,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="C4:J49"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="I9" s="2"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.67499999999999993</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="I10" s="2"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="I11" s="2"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="I12" s="2"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="I13" s="2"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.67986111111111114</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.70624999999999993</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="I15" s="2"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.40902777777777777</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="6"/>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17">
+      <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.40902777777777777</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="6"/>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18">
+      <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.6118055555555556</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="6"/>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19">
+      <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.62013888888888891</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20">
+      <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.66875000000000007</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21">
+      <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.67499999999999993</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22">
+      <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.71666666666666667</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23">
+      <c r="C23" s="1">
         <v>19</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.71875</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24">
+      <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.375</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25">
+      <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26">
+      <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>0.3979166666666667</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27">
+      <c r="C27" s="1">
         <v>23</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>0.3979166666666667</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.40486111111111112</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.40625</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30">
+      <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>0.4597222222222222</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
         <v>0.4597222222222222</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32">
+      <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>0.46180555555555558</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33">
+      <c r="C33" s="1">
         <v>29</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>0.46180555555555558</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34">
+      <c r="C34" s="1">
         <v>30</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>0.46249999999999997</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35">
+      <c r="C35" s="1">
         <v>31</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>0.46249999999999997</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36">
+      <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>0.46388888888888885</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37">
+      <c r="C37" s="1">
         <v>33</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>0.46388888888888885</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="1">
         <v>34</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>0.50972222222222219</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>0.52083333333333337</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="1">
         <v>36</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>0.56805555555555554</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>0.72152777777777777</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="1">
         <v>38</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43">
+      <c r="C43" s="1">
         <v>39</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>0.72986111111111107</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44">
+      <c r="C44" s="1">
         <v>40</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>0.7416666666666667</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45">
+      <c r="C45" s="1">
         <v>41</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>0.74444444444444446</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -1201,71 +1235,353 @@
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46">
+      <c r="C46" s="1">
         <v>42</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>0.74444444444444446</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47">
+      <c r="C47" s="1">
         <v>43</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>0.74444444444444446</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48">
+      <c r="C48" s="1">
         <v>44</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>0.74444444444444446</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49">
+      <c r="C49" s="1">
         <v>45</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>0.76041666666666663</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>46</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="E50" s="5">
+        <v>43469</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E51" s="5">
+        <v>43469</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E52" s="5">
+        <v>43469</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>49</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E53" s="5">
+        <v>43469</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>57</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="E61" s="5">
+        <v>43500</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1278,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,52 +1619,52 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1356,15 +1672,15 @@
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="2">
-        <v>45</v>
+      <c r="J11" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>480</v>
       </c>
     </row>
@@ -1372,27 +1688,27 @@
       <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0.74444444444444446</v>
+      <c r="J15" s="2">
+        <v>0.39374999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>27</v>
+      <c r="J16" s="6">
+        <v>43500</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
@@ -1408,14 +1724,14 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="45" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1440,7 +1756,7 @@
         <v>30</v>
       </c>
       <c r="J25">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
